--- a/Mouse_workbooks/CH_160605_B.xlsx
+++ b/Mouse_workbooks/CH_160605_B.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glickfeld_lab\Documents\docubase\Mouse_workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlie\Documents\SourceTree_local\docubase\Mouse_workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -316,18 +316,6 @@
     <t>Rinput from HS1 only. Ignore HS2</t>
   </si>
   <si>
-    <t>HS2 at (49, 34), pia at (175, 226). This is probably LM.</t>
-  </si>
-  <si>
-    <t>2016_06_23_00010</t>
-  </si>
-  <si>
-    <t>2016_06_23_00011</t>
-  </si>
-  <si>
-    <t>2016_06_23_00012</t>
-  </si>
-  <si>
     <t>Small Vclamp steps at resting potential. HS1 is junk</t>
   </si>
   <si>
@@ -337,36 +325,18 @@
     <t>Rinput from one neuron. HS1 is junk.</t>
   </si>
   <si>
-    <t>2016_06_23_00013</t>
-  </si>
-  <si>
-    <t>2016_06_23_00014</t>
-  </si>
-  <si>
     <t>HS2 at (22, -5), pia at (26, 184). This is probably PM or posterior AM</t>
   </si>
   <si>
     <t>Small Vclamp steps at resting potential. HS1 is junk. This one is at Vhold=-60, where the input resistance is quite high. I think this demonstrates that the seal is okay.</t>
   </si>
   <si>
-    <t>2016_06_23_00015</t>
-  </si>
-  <si>
-    <t>2016_06_23_00016</t>
-  </si>
-  <si>
     <t>Small Vclamp steps at resting potential. HS1 is junk. This time the input resistance looks pretty low.</t>
   </si>
   <si>
     <t>DC steps, HS1 is junk.</t>
   </si>
   <si>
-    <t>2016_06_23_00017</t>
-  </si>
-  <si>
-    <t>2016_06_23_00018</t>
-  </si>
-  <si>
     <t>Rinput. HS1 is junk</t>
   </si>
   <si>
@@ -377,18 +347,6 @@
   </si>
   <si>
     <t>Small Vclamp steps at -60 HS1 is junk. This one is at Vhold=-60, where the input resistance is quite high think this demonstrates that the seal is okay.</t>
-  </si>
-  <si>
-    <t>2016_06_23_00019</t>
-  </si>
-  <si>
-    <t>2016_06_23_00020</t>
-  </si>
-  <si>
-    <t>2016_06_23_00021</t>
-  </si>
-  <si>
-    <t>2016_06_23_00022</t>
   </si>
   <si>
     <t>Small Vclamp steps at -60 HS1 is junk. This one is at Vhold=-60, where the input resistance is quite high. I think this demonstrates that the seal is okay.</t>
@@ -418,6 +376,48 @@
       </rPr>
       <t>photo includes the recording site for sites 5 and 6</t>
     </r>
+  </si>
+  <si>
+    <t>2016_06_23_0010</t>
+  </si>
+  <si>
+    <t>2016_06_23_0011</t>
+  </si>
+  <si>
+    <t>2016_06_23_0012</t>
+  </si>
+  <si>
+    <t>2016_06_23_0013</t>
+  </si>
+  <si>
+    <t>2016_06_23_0014</t>
+  </si>
+  <si>
+    <t>2016_06_23_0015</t>
+  </si>
+  <si>
+    <t>2016_06_23_0016</t>
+  </si>
+  <si>
+    <t>2016_06_23_0017</t>
+  </si>
+  <si>
+    <t>2016_06_23_0018</t>
+  </si>
+  <si>
+    <t>2016_06_23_0019</t>
+  </si>
+  <si>
+    <t>2016_06_23_0020</t>
+  </si>
+  <si>
+    <t>2016_06_23_0021</t>
+  </si>
+  <si>
+    <t>2016_06_23_0022</t>
+  </si>
+  <si>
+    <t>HS1 at (49, 34), pia at (175, 226). This is probably LM.</t>
   </si>
 </sst>
 </file>
@@ -1081,6 +1081,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1090,15 +1099,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1189,6 +1189,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1200,21 +1215,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1649,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43:I43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="62" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D1" s="63"/>
       <c r="E1" s="63"/>
@@ -1691,13 +1691,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="59"/>
-      <c r="C2" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="C2" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
       <c r="H2" s="26" t="s">
         <v>30</v>
       </c>
@@ -1713,10 +1713,10 @@
       <c r="C3" s="49">
         <v>34</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="50"/>
       <c r="I3" s="51"/>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="B4" s="61"/>
       <c r="C4" s="52" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D4" s="53"/>
       <c r="E4" s="53"/>
@@ -1765,11 +1765,11 @@
       <c r="F6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
     </row>
     <row r="7" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1790,11 +1790,11 @@
       <c r="F7" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="44"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
     </row>
     <row r="8" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1815,11 +1815,11 @@
       <c r="F8" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="44"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="47"/>
     </row>
     <row r="9" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1834,11 +1834,11 @@
       <c r="F9" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="44"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="47"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -1847,9 +1847,9 @@
       <c r="D10" s="5"/>
       <c r="E10" s="36"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="47"/>
     </row>
     <row r="11" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1870,11 +1870,11 @@
       <c r="F11" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="44"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
     </row>
     <row r="12" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1895,11 +1895,11 @@
       <c r="F12" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
     </row>
     <row r="13" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1914,11 +1914,11 @@
       <c r="F13" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1927,9 +1927,9 @@
       <c r="D14" s="5"/>
       <c r="E14" s="36"/>
       <c r="F14" s="23"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="47"/>
     </row>
     <row r="15" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1950,11 +1950,11 @@
       <c r="F15" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="43"/>
-      <c r="I15" s="44"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="47"/>
     </row>
     <row r="16" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1975,11 +1975,11 @@
       <c r="F16" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="44"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="47"/>
     </row>
     <row r="17" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -2000,11 +2000,11 @@
       <c r="F17" s="41">
         <v>-77</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
     </row>
     <row r="18" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -2019,11 +2019,11 @@
       <c r="F18" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
     </row>
     <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -2032,9 +2032,9 @@
       <c r="D19" s="5"/>
       <c r="E19" s="36"/>
       <c r="F19" s="23"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="44"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
     </row>
     <row r="20" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -2055,11 +2055,11 @@
       <c r="F20" s="41">
         <v>-82</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="44"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="47"/>
     </row>
     <row r="21" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -2080,11 +2080,11 @@
       <c r="F21" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="44"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="47"/>
     </row>
     <row r="22" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -2105,11 +2105,11 @@
       <c r="F22" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="44"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="47"/>
     </row>
     <row r="23" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -2124,11 +2124,11 @@
       <c r="F23" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44"/>
+      <c r="G23" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="46"/>
+      <c r="I23" s="47"/>
     </row>
     <row r="24" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -2137,16 +2137,16 @@
       <c r="D24" s="5"/>
       <c r="E24" s="36"/>
       <c r="F24" s="23"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="44"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="47"/>
     </row>
     <row r="25" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>56</v>
@@ -2160,18 +2160,18 @@
       <c r="F25" s="41">
         <v>-82</v>
       </c>
-      <c r="G25" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="H25" s="43"/>
-      <c r="I25" s="44"/>
+      <c r="G25" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="46"/>
+      <c r="I25" s="47"/>
     </row>
     <row r="26" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>5</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>44</v>
@@ -2185,18 +2185,18 @@
       <c r="F26" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44"/>
+      <c r="G26" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="46"/>
+      <c r="I26" s="47"/>
     </row>
     <row r="27" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>5</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>44</v>
@@ -2210,18 +2210,18 @@
       <c r="F27" s="41">
         <v>-83</v>
       </c>
-      <c r="G27" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="44"/>
+      <c r="G27" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="46"/>
+      <c r="I27" s="47"/>
     </row>
     <row r="28" spans="1:9" s="40" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>44</v>
@@ -2235,18 +2235,18 @@
       <c r="F28" s="41">
         <v>-44</v>
       </c>
-      <c r="G28" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" s="43"/>
-      <c r="I28" s="44"/>
+      <c r="G28" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="46"/>
+      <c r="I28" s="47"/>
     </row>
     <row r="29" spans="1:9" s="40" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>5</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>44</v>
@@ -2260,11 +2260,11 @@
       <c r="F29" s="41">
         <v>-60</v>
       </c>
-      <c r="G29" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" s="43"/>
-      <c r="I29" s="44"/>
+      <c r="G29" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="46"/>
+      <c r="I29" s="47"/>
     </row>
     <row r="30" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -2279,11 +2279,11 @@
       <c r="F30" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
+      <c r="G30" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="46"/>
+      <c r="I30" s="47"/>
     </row>
     <row r="31" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
@@ -2292,16 +2292,16 @@
       <c r="D31" s="5"/>
       <c r="E31" s="36"/>
       <c r="F31" s="23"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="44"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="47"/>
     </row>
     <row r="32" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>6</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>56</v>
@@ -2315,18 +2315,18 @@
       <c r="F32" s="23">
         <v>-60</v>
       </c>
-      <c r="G32" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
+      <c r="G32" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="46"/>
+      <c r="I32" s="47"/>
     </row>
     <row r="33" spans="1:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>6</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>56</v>
@@ -2340,18 +2340,18 @@
       <c r="F33" s="23">
         <v>-85</v>
       </c>
-      <c r="G33" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="H33" s="43"/>
-      <c r="I33" s="44"/>
+      <c r="G33" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="46"/>
+      <c r="I33" s="47"/>
     </row>
     <row r="34" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>6</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>44</v>
@@ -2365,18 +2365,18 @@
       <c r="F34" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G34" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="H34" s="43"/>
-      <c r="I34" s="44"/>
+      <c r="G34" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="46"/>
+      <c r="I34" s="47"/>
     </row>
     <row r="35" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>6</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>44</v>
@@ -2390,11 +2390,11 @@
       <c r="F35" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G35" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="H35" s="43"/>
-      <c r="I35" s="44"/>
+      <c r="G35" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="H35" s="46"/>
+      <c r="I35" s="47"/>
     </row>
     <row r="36" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
@@ -2409,11 +2409,11 @@
         <v>34</v>
       </c>
       <c r="F36" s="23"/>
-      <c r="G36" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="H36" s="43"/>
-      <c r="I36" s="44"/>
+      <c r="G36" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" s="46"/>
+      <c r="I36" s="47"/>
     </row>
     <row r="37" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
@@ -2422,16 +2422,16 @@
       <c r="D37" s="5"/>
       <c r="E37" s="36"/>
       <c r="F37" s="23"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="44"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="47"/>
     </row>
     <row r="38" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>7</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>56</v>
@@ -2445,18 +2445,18 @@
       <c r="F38" s="41">
         <v>-60</v>
       </c>
-      <c r="G38" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="H38" s="43"/>
-      <c r="I38" s="44"/>
+      <c r="G38" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="46"/>
+      <c r="I38" s="47"/>
     </row>
     <row r="39" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>7</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>44</v>
@@ -2470,18 +2470,18 @@
       <c r="F39" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="G39" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="H39" s="43"/>
-      <c r="I39" s="44"/>
+      <c r="G39" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" s="46"/>
+      <c r="I39" s="47"/>
     </row>
     <row r="40" spans="1:9" s="40" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>7</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>44</v>
@@ -2496,7 +2496,7 @@
         <v>45</v>
       </c>
       <c r="G40" s="37" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H40" s="38"/>
       <c r="I40" s="39"/>
@@ -2506,7 +2506,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>44</v>
@@ -2520,11 +2520,11 @@
       <c r="F41" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="G41" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H41" s="43"/>
-      <c r="I41" s="44"/>
+      <c r="G41" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41" s="46"/>
+      <c r="I41" s="47"/>
     </row>
     <row r="42" spans="1:9" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
@@ -2541,11 +2541,11 @@
       <c r="F42" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G42" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="H42" s="43"/>
-      <c r="I42" s="44"/>
+      <c r="G42" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42" s="46"/>
+      <c r="I42" s="47"/>
     </row>
     <row r="43" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
@@ -2554,9 +2554,9 @@
       <c r="D43" s="5"/>
       <c r="E43" s="36"/>
       <c r="F43" s="23"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="44"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="47"/>
     </row>
     <row r="44" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
@@ -2565,9 +2565,9 @@
       <c r="D44" s="5"/>
       <c r="E44" s="36"/>
       <c r="F44" s="23"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="44"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="47"/>
     </row>
     <row r="45" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
@@ -2576,9 +2576,9 @@
       <c r="D45" s="5"/>
       <c r="E45" s="36"/>
       <c r="F45" s="23"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="44"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="47"/>
     </row>
     <row r="46" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
@@ -2587,9 +2587,9 @@
       <c r="D46" s="5"/>
       <c r="E46" s="36"/>
       <c r="F46" s="23"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="44"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="47"/>
     </row>
     <row r="47" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
@@ -2598,9 +2598,9 @@
       <c r="D47" s="5"/>
       <c r="E47" s="36"/>
       <c r="F47" s="23"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="44"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="47"/>
     </row>
     <row r="48" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
@@ -2609,9 +2609,9 @@
       <c r="D48" s="5"/>
       <c r="E48" s="36"/>
       <c r="F48" s="23"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="44"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="47"/>
     </row>
     <row r="49" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
@@ -2620,9 +2620,9 @@
       <c r="D49" s="5"/>
       <c r="E49" s="36"/>
       <c r="F49" s="23"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="44"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="47"/>
     </row>
     <row r="50" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
@@ -2631,9 +2631,9 @@
       <c r="D50" s="5"/>
       <c r="E50" s="36"/>
       <c r="F50" s="23"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="44"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="47"/>
     </row>
     <row r="51" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
@@ -2642,9 +2642,9 @@
       <c r="D51" s="5"/>
       <c r="E51" s="36"/>
       <c r="F51" s="23"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="44"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="47"/>
     </row>
     <row r="52" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
@@ -2653,9 +2653,9 @@
       <c r="D52" s="5"/>
       <c r="E52" s="36"/>
       <c r="F52" s="23"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="44"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="47"/>
     </row>
     <row r="53" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
@@ -2664,9 +2664,9 @@
       <c r="D53" s="5"/>
       <c r="E53" s="36"/>
       <c r="F53" s="23"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="44"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="47"/>
     </row>
     <row r="54" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
@@ -2675,9 +2675,9 @@
       <c r="D54" s="5"/>
       <c r="E54" s="36"/>
       <c r="F54" s="23"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="44"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="47"/>
     </row>
     <row r="55" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
@@ -2686,9 +2686,9 @@
       <c r="D55" s="5"/>
       <c r="E55" s="36"/>
       <c r="F55" s="23"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="44"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="47"/>
     </row>
     <row r="56" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
@@ -2697,9 +2697,9 @@
       <c r="D56" s="5"/>
       <c r="E56" s="36"/>
       <c r="F56" s="23"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="44"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="47"/>
     </row>
     <row r="57" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
@@ -2708,9 +2708,9 @@
       <c r="D57" s="5"/>
       <c r="E57" s="36"/>
       <c r="F57" s="23"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="44"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="47"/>
     </row>
     <row r="58" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
@@ -2719,9 +2719,9 @@
       <c r="D58" s="5"/>
       <c r="E58" s="36"/>
       <c r="F58" s="23"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="44"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="47"/>
     </row>
     <row r="59" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
@@ -2730,9 +2730,9 @@
       <c r="D59" s="5"/>
       <c r="E59" s="36"/>
       <c r="F59" s="23"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="44"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="47"/>
     </row>
     <row r="60" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
@@ -2741,9 +2741,9 @@
       <c r="D60" s="5"/>
       <c r="E60" s="36"/>
       <c r="F60" s="23"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="44"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="47"/>
     </row>
     <row r="61" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
@@ -2752,9 +2752,9 @@
       <c r="D61" s="5"/>
       <c r="E61" s="36"/>
       <c r="F61" s="23"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="44"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="47"/>
     </row>
     <row r="62" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
@@ -2763,9 +2763,9 @@
       <c r="D62" s="5"/>
       <c r="E62" s="36"/>
       <c r="F62" s="23"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="44"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="47"/>
     </row>
     <row r="63" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
@@ -2774,9 +2774,9 @@
       <c r="D63" s="5"/>
       <c r="E63" s="36"/>
       <c r="F63" s="23"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="44"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="47"/>
     </row>
     <row r="64" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
@@ -2785,9 +2785,9 @@
       <c r="D64" s="5"/>
       <c r="E64" s="36"/>
       <c r="F64" s="23"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="44"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="47"/>
     </row>
     <row r="65" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
@@ -2796,9 +2796,9 @@
       <c r="D65" s="5"/>
       <c r="E65" s="36"/>
       <c r="F65" s="23"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="44"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="47"/>
     </row>
     <row r="66" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
@@ -2807,9 +2807,9 @@
       <c r="D66" s="5"/>
       <c r="E66" s="36"/>
       <c r="F66" s="23"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="44"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="47"/>
     </row>
     <row r="67" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
@@ -2818,9 +2818,9 @@
       <c r="D67" s="5"/>
       <c r="E67" s="36"/>
       <c r="F67" s="23"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="44"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="47"/>
     </row>
     <row r="68" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
@@ -2829,9 +2829,9 @@
       <c r="D68" s="5"/>
       <c r="E68" s="36"/>
       <c r="F68" s="23"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="44"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="47"/>
     </row>
     <row r="69" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
@@ -2840,9 +2840,9 @@
       <c r="D69" s="5"/>
       <c r="E69" s="36"/>
       <c r="F69" s="23"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="44"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="47"/>
     </row>
     <row r="70" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
@@ -2851,9 +2851,9 @@
       <c r="D70" s="5"/>
       <c r="E70" s="36"/>
       <c r="F70" s="23"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="44"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="47"/>
     </row>
     <row r="71" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -2862,9 +2862,9 @@
       <c r="D71" s="5"/>
       <c r="E71" s="36"/>
       <c r="F71" s="23"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="44"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="47"/>
     </row>
     <row r="72" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
@@ -2873,9 +2873,9 @@
       <c r="D72" s="5"/>
       <c r="E72" s="36"/>
       <c r="F72" s="23"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="44"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="47"/>
     </row>
     <row r="73" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
@@ -2884,9 +2884,9 @@
       <c r="D73" s="5"/>
       <c r="E73" s="36"/>
       <c r="F73" s="23"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="44"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="47"/>
     </row>
     <row r="74" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
@@ -2895,9 +2895,9 @@
       <c r="D74" s="5"/>
       <c r="E74" s="36"/>
       <c r="F74" s="23"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="44"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="47"/>
     </row>
     <row r="75" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
@@ -2906,9 +2906,9 @@
       <c r="D75" s="5"/>
       <c r="E75" s="36"/>
       <c r="F75" s="23"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="44"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="47"/>
     </row>
     <row r="76" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
@@ -2917,9 +2917,9 @@
       <c r="D76" s="5"/>
       <c r="E76" s="36"/>
       <c r="F76" s="23"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="44"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="47"/>
     </row>
     <row r="77" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
@@ -2928,9 +2928,9 @@
       <c r="D77" s="5"/>
       <c r="E77" s="36"/>
       <c r="F77" s="23"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="44"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="47"/>
     </row>
     <row r="78" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
@@ -2939,9 +2939,9 @@
       <c r="D78" s="5"/>
       <c r="E78" s="36"/>
       <c r="F78" s="23"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="44"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="47"/>
     </row>
     <row r="79" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
@@ -2950,9 +2950,9 @@
       <c r="D79" s="5"/>
       <c r="E79" s="36"/>
       <c r="F79" s="23"/>
-      <c r="G79" s="42"/>
-      <c r="H79" s="43"/>
-      <c r="I79" s="44"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="47"/>
     </row>
     <row r="80" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
@@ -2961,9 +2961,9 @@
       <c r="D80" s="5"/>
       <c r="E80" s="36"/>
       <c r="F80" s="23"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="44"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="46"/>
+      <c r="I80" s="47"/>
     </row>
     <row r="81" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
@@ -2972,9 +2972,9 @@
       <c r="D81" s="5"/>
       <c r="E81" s="36"/>
       <c r="F81" s="23"/>
-      <c r="G81" s="42"/>
-      <c r="H81" s="43"/>
-      <c r="I81" s="44"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="46"/>
+      <c r="I81" s="47"/>
     </row>
     <row r="82" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
@@ -2983,9 +2983,9 @@
       <c r="D82" s="5"/>
       <c r="E82" s="36"/>
       <c r="F82" s="23"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="43"/>
-      <c r="I82" s="44"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="47"/>
     </row>
     <row r="83" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
@@ -2994,9 +2994,9 @@
       <c r="D83" s="5"/>
       <c r="E83" s="36"/>
       <c r="F83" s="23"/>
-      <c r="G83" s="42"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="44"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="47"/>
     </row>
     <row r="84" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
@@ -3005,9 +3005,9 @@
       <c r="D84" s="5"/>
       <c r="E84" s="36"/>
       <c r="F84" s="23"/>
-      <c r="G84" s="42"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="44"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="46"/>
+      <c r="I84" s="47"/>
     </row>
     <row r="85" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
@@ -3016,9 +3016,9 @@
       <c r="D85" s="5"/>
       <c r="E85" s="36"/>
       <c r="F85" s="23"/>
-      <c r="G85" s="42"/>
-      <c r="H85" s="43"/>
-      <c r="I85" s="44"/>
+      <c r="G85" s="45"/>
+      <c r="H85" s="46"/>
+      <c r="I85" s="47"/>
     </row>
     <row r="86" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
@@ -3027,9 +3027,9 @@
       <c r="D86" s="5"/>
       <c r="E86" s="36"/>
       <c r="F86" s="23"/>
-      <c r="G86" s="42"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="44"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="47"/>
     </row>
     <row r="87" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
@@ -3038,9 +3038,9 @@
       <c r="D87" s="5"/>
       <c r="E87" s="36"/>
       <c r="F87" s="23"/>
-      <c r="G87" s="42"/>
-      <c r="H87" s="43"/>
-      <c r="I87" s="44"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="47"/>
     </row>
     <row r="88" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
@@ -3049,9 +3049,9 @@
       <c r="D88" s="5"/>
       <c r="E88" s="36"/>
       <c r="F88" s="23"/>
-      <c r="G88" s="42"/>
-      <c r="H88" s="43"/>
-      <c r="I88" s="44"/>
+      <c r="G88" s="45"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="47"/>
     </row>
     <row r="89" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
@@ -3060,9 +3060,9 @@
       <c r="D89" s="5"/>
       <c r="E89" s="36"/>
       <c r="F89" s="23"/>
-      <c r="G89" s="42"/>
-      <c r="H89" s="43"/>
-      <c r="I89" s="44"/>
+      <c r="G89" s="45"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="47"/>
     </row>
     <row r="90" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
@@ -3071,9 +3071,9 @@
       <c r="D90" s="5"/>
       <c r="E90" s="36"/>
       <c r="F90" s="23"/>
-      <c r="G90" s="42"/>
-      <c r="H90" s="43"/>
-      <c r="I90" s="44"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="46"/>
+      <c r="I90" s="47"/>
     </row>
     <row r="91" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
@@ -3082,9 +3082,9 @@
       <c r="D91" s="5"/>
       <c r="E91" s="36"/>
       <c r="F91" s="23"/>
-      <c r="G91" s="42"/>
-      <c r="H91" s="43"/>
-      <c r="I91" s="44"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="47"/>
     </row>
     <row r="92" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
@@ -3093,9 +3093,9 @@
       <c r="D92" s="5"/>
       <c r="E92" s="36"/>
       <c r="F92" s="23"/>
-      <c r="G92" s="42"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="44"/>
+      <c r="G92" s="45"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="47"/>
     </row>
     <row r="93" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
@@ -3104,9 +3104,9 @@
       <c r="D93" s="5"/>
       <c r="E93" s="36"/>
       <c r="F93" s="23"/>
-      <c r="G93" s="42"/>
-      <c r="H93" s="43"/>
-      <c r="I93" s="44"/>
+      <c r="G93" s="45"/>
+      <c r="H93" s="46"/>
+      <c r="I93" s="47"/>
     </row>
     <row r="94" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
@@ -3115,9 +3115,9 @@
       <c r="D94" s="5"/>
       <c r="E94" s="36"/>
       <c r="F94" s="23"/>
-      <c r="G94" s="42"/>
-      <c r="H94" s="43"/>
-      <c r="I94" s="44"/>
+      <c r="G94" s="45"/>
+      <c r="H94" s="46"/>
+      <c r="I94" s="47"/>
     </row>
     <row r="95" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
@@ -3126,9 +3126,9 @@
       <c r="D95" s="5"/>
       <c r="E95" s="36"/>
       <c r="F95" s="23"/>
-      <c r="G95" s="42"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="44"/>
+      <c r="G95" s="45"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="47"/>
     </row>
     <row r="96" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
@@ -3137,9 +3137,9 @@
       <c r="D96" s="5"/>
       <c r="E96" s="36"/>
       <c r="F96" s="23"/>
-      <c r="G96" s="42"/>
-      <c r="H96" s="43"/>
-      <c r="I96" s="44"/>
+      <c r="G96" s="45"/>
+      <c r="H96" s="46"/>
+      <c r="I96" s="47"/>
     </row>
     <row r="97" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
@@ -3148,9 +3148,9 @@
       <c r="D97" s="5"/>
       <c r="E97" s="36"/>
       <c r="F97" s="23"/>
-      <c r="G97" s="42"/>
-      <c r="H97" s="43"/>
-      <c r="I97" s="44"/>
+      <c r="G97" s="45"/>
+      <c r="H97" s="46"/>
+      <c r="I97" s="47"/>
     </row>
     <row r="98" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
@@ -3159,9 +3159,9 @@
       <c r="D98" s="5"/>
       <c r="E98" s="36"/>
       <c r="F98" s="23"/>
-      <c r="G98" s="42"/>
-      <c r="H98" s="43"/>
-      <c r="I98" s="44"/>
+      <c r="G98" s="45"/>
+      <c r="H98" s="46"/>
+      <c r="I98" s="47"/>
     </row>
     <row r="99" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
@@ -3170,9 +3170,9 @@
       <c r="D99" s="5"/>
       <c r="E99" s="36"/>
       <c r="F99" s="23"/>
-      <c r="G99" s="42"/>
-      <c r="H99" s="43"/>
-      <c r="I99" s="44"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="46"/>
+      <c r="I99" s="47"/>
     </row>
     <row r="100" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
@@ -3181,9 +3181,9 @@
       <c r="D100" s="5"/>
       <c r="E100" s="36"/>
       <c r="F100" s="23"/>
-      <c r="G100" s="42"/>
-      <c r="H100" s="43"/>
-      <c r="I100" s="44"/>
+      <c r="G100" s="45"/>
+      <c r="H100" s="46"/>
+      <c r="I100" s="47"/>
     </row>
     <row r="101" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
@@ -3192,9 +3192,9 @@
       <c r="D101" s="5"/>
       <c r="E101" s="36"/>
       <c r="F101" s="23"/>
-      <c r="G101" s="42"/>
-      <c r="H101" s="43"/>
-      <c r="I101" s="44"/>
+      <c r="G101" s="45"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="47"/>
     </row>
     <row r="102" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
@@ -3203,9 +3203,9 @@
       <c r="D102" s="5"/>
       <c r="E102" s="36"/>
       <c r="F102" s="23"/>
-      <c r="G102" s="42"/>
-      <c r="H102" s="43"/>
-      <c r="I102" s="44"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="46"/>
+      <c r="I102" s="47"/>
     </row>
     <row r="103" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
@@ -3214,13 +3214,105 @@
       <c r="D103" s="5"/>
       <c r="E103" s="36"/>
       <c r="F103" s="23"/>
-      <c r="G103" s="42"/>
-      <c r="H103" s="43"/>
-      <c r="I103" s="44"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="47"/>
     </row>
     <row r="104" spans="1:9" ht="39" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="106">
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="G8:I8"/>
@@ -3235,98 +3327,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="C2:G2"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.47222222222222221" right="0.56944444444444442" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3487,7 +3487,7 @@
       <c r="A2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="86">
+      <c r="B2" s="78">
         <v>42526</v>
       </c>
       <c r="C2" s="68"/>
@@ -3549,12 +3549,12 @@
       <c r="A8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="83"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="80"/>
     </row>
     <row r="9" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
@@ -3582,12 +3582,12 @@
       <c r="A11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="85"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
     </row>
     <row r="12" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3606,12 +3606,12 @@
       <c r="A15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="79"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="84"/>
     </row>
     <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
@@ -3639,32 +3639,32 @@
       <c r="A18" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="81"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="86"/>
     </row>
     <row r="19" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:7" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
